--- a/项目文档/项目进度/校准系统_第一阶段_进度计划_20200702.xlsx
+++ b/项目文档/项目进度/校准系统_第一阶段_进度计划_20200702.xlsx
@@ -16,12 +16,12 @@
     <definedName name="任务_表">任务_表!#REF!</definedName>
     <definedName name="资源_表">资源_表!$A$1:$L$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="174">
   <si>
     <t>标识号</t>
   </si>
@@ -417,10 +417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ZPDU执行板单片机软件修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,10 +462,6 @@
   </si>
   <si>
     <t>2 个工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -590,10 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10 个工作日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -608,9 +596,6 @@
   <si>
     <t>正在进行</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
   </si>
   <si>
     <t>系统测试、功能完善</t>
@@ -800,7 +785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -870,22 +855,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
@@ -900,10 +874,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,8 +883,29 @@
     <xf numFmtId="31" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,29 +919,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2201,7 +2190,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2211,226 +2200,226 @@
     <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="20" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="25" customWidth="1"/>
     <col min="7" max="7" width="8.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="26" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="25" customWidth="1"/>
     <col min="9" max="9" width="18.25" customWidth="1"/>
     <col min="10" max="49" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="44" t="s">
+      <c r="A1" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="44" t="s">
+      <c r="F1" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="50">
+      <c r="J1" s="37">
         <v>43990</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="48">
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="35">
         <v>43997</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="48">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="35">
         <v>44004</v>
       </c>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48">
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35">
         <v>44011</v>
       </c>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="48">
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="35">
         <v>44018</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="48">
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="35">
         <v>44025</v>
       </c>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="48">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="35">
         <v>44032</v>
       </c>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="48">
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="35">
         <v>44039</v>
       </c>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="41"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="32" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="Z2" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AC2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AD2" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="AE2" s="29" t="s">
+      <c r="AE2" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AF2" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AG2" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="AH2" s="29" t="s">
+      <c r="AH2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="AI2" s="29" t="s">
+      <c r="AI2" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="AJ2" s="29" t="s">
+      <c r="AJ2" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="AK2" s="29" t="s">
+      <c r="AK2" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AL2" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="AM2" s="29" t="s">
+      <c r="AM2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="AN2" s="29" t="s">
+      <c r="AN2" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AO2" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="AP2" s="29" t="s">
+      <c r="AP2" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="AQ2" s="29" t="s">
+      <c r="AQ2" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="AR2" s="29" t="s">
+      <c r="AR2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="AS2" s="29" t="s">
+      <c r="AS2" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="AT2" s="29" t="s">
+      <c r="AT2" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="AU2" s="29" t="s">
+      <c r="AU2" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="AV2" s="29" t="s">
+      <c r="AV2" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="AW2" s="29" t="s">
+      <c r="AW2" s="26" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2439,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="19">
         <v>43990</v>
@@ -2450,117 +2439,117 @@
       <c r="E3" s="19">
         <v>44001</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="20"/>
       <c r="H3" s="23"/>
       <c r="I3" s="21"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
     </row>
     <row r="4" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A4" s="8">
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="47">
         <v>43990</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="48">
         <v>43990</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="49">
         <v>43990</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="G4" s="50"/>
+      <c r="H4" s="52">
+        <v>1</v>
+      </c>
+      <c r="I4" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="30"/>
-      <c r="AT4" s="30"/>
-      <c r="AU4" s="30"/>
-      <c r="AV4" s="30"/>
-      <c r="AW4" s="30"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
       <c r="AX4" s="22"/>
     </row>
     <row r="5" spans="1:50" ht="19.149999999999999" customHeight="1">
@@ -2568,10 +2557,10 @@
         <v>1.2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="10">
         <v>43990</v>
@@ -2579,66 +2568,66 @@
       <c r="E5" s="10">
         <v>43994</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="32">
         <v>43994</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="24" t="s">
-        <v>141</v>
+      <c r="H5" s="52">
+        <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="31"/>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="31"/>
-      <c r="AW5" s="31"/>
+        <v>132</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="28"/>
+      <c r="AR5" s="28"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
     </row>
     <row r="6" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A6" s="8">
         <v>1.3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="D6" s="10">
         <v>43997</v>
@@ -2646,68 +2635,68 @@
       <c r="E6" s="10">
         <v>44001</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="32">
         <v>44006</v>
       </c>
       <c r="G6" s="8">
         <v>1.2</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>128</v>
+      <c r="H6" s="52">
+        <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="31"/>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="31"/>
-      <c r="AT6" s="31"/>
-      <c r="AU6" s="31"/>
-      <c r="AV6" s="31"/>
-      <c r="AW6" s="31"/>
+        <v>141</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="28"/>
     </row>
     <row r="7" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A7" s="8">
         <v>1.4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="10">
         <v>43991</v>
@@ -2715,66 +2704,66 @@
       <c r="E7" s="10">
         <v>43992</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="32">
         <v>43992</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="24" t="s">
-        <v>128</v>
+      <c r="H7" s="52">
+        <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="31"/>
+        <v>140</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
     </row>
     <row r="8" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A8" s="8">
         <v>1.5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" s="10">
         <v>43997</v>
@@ -2782,58 +2771,58 @@
       <c r="E8" s="10">
         <v>44001</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="32">
         <v>44006</v>
       </c>
       <c r="G8" s="8">
         <v>1.4</v>
       </c>
-      <c r="H8" s="24" t="s">
-        <v>176</v>
+      <c r="H8" s="52">
+        <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="31"/>
-      <c r="AS8" s="31"/>
-      <c r="AT8" s="31"/>
-      <c r="AU8" s="31"/>
-      <c r="AV8" s="31"/>
-      <c r="AW8" s="31"/>
+        <v>166</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
     </row>
     <row r="9" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A9" s="8"/>
@@ -2841,57 +2830,57 @@
       <c r="C9" s="7"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="36"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="8"/>
       <c r="H9"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="28"/>
+      <c r="AT9" s="28"/>
+      <c r="AU9" s="28"/>
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="28"/>
     </row>
     <row r="10" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A10" s="4">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>28</v>
@@ -2902,50 +2891,50 @@
       <c r="E10" s="9">
         <v>44001</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="25"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="31"/>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="31"/>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="31"/>
-      <c r="AV10" s="31"/>
-      <c r="AW10" s="31"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="28"/>
+      <c r="AU10" s="28"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="28"/>
     </row>
     <row r="11" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A11" s="12">
@@ -2963,65 +2952,65 @@
       <c r="E11" s="15">
         <v>43999</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="34">
         <v>44000</v>
       </c>
       <c r="G11" s="12">
         <v>1.2</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>128</v>
+      <c r="H11" s="52">
+        <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="31"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="28"/>
+      <c r="AU11" s="28"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="28"/>
     </row>
     <row r="12" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A12" s="12">
         <v>2.2000000000000002</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
@@ -3032,56 +3021,56 @@
       <c r="E12" s="15">
         <v>44001</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="34">
         <v>44001</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="24" t="s">
-        <v>128</v>
+      <c r="H12" s="52">
+        <v>1</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="31"/>
-      <c r="AV12" s="31"/>
-      <c r="AW12" s="31"/>
+        <v>153</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="28"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="28"/>
+      <c r="AR12" s="28"/>
+      <c r="AS12" s="28"/>
+      <c r="AT12" s="28"/>
+      <c r="AU12" s="28"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="28"/>
     </row>
     <row r="13" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A13" s="8"/>
@@ -3089,57 +3078,57 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="28"/>
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="28"/>
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="28"/>
+      <c r="AU13" s="28"/>
+      <c r="AV13" s="28"/>
+      <c r="AW13" s="28"/>
     </row>
     <row r="14" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A14" s="4">
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>21</v>
@@ -3150,60 +3139,60 @@
       <c r="E14" s="9">
         <v>44015</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="31"/>
-      <c r="AP14" s="31"/>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="31"/>
-      <c r="AS14" s="31"/>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="31"/>
-      <c r="AV14" s="31"/>
-      <c r="AW14" s="31"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="28"/>
     </row>
     <row r="15" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A15" s="12">
         <v>3.1</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>147</v>
       </c>
       <c r="D15" s="15">
         <v>44004</v>
@@ -3211,62 +3200,62 @@
       <c r="E15" s="15">
         <v>44008</v>
       </c>
-      <c r="F15" s="37"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="31"/>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="31"/>
-      <c r="AW15" s="31"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="28"/>
     </row>
     <row r="16" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A16" s="12">
         <v>3.2</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="15">
         <v>44004</v>
@@ -3274,68 +3263,68 @@
       <c r="E16" s="15">
         <v>44008</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="34">
         <v>44013</v>
       </c>
       <c r="G16" s="8">
         <v>1.4</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>128</v>
+      <c r="H16" s="52">
+        <v>1</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="31"/>
-      <c r="AP16" s="31"/>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="31"/>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
-      <c r="AW16" s="31"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="28"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="28"/>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="28"/>
+      <c r="AV16" s="28"/>
+      <c r="AW16" s="28"/>
     </row>
     <row r="17" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A17" s="8">
         <v>3.3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="10">
         <v>44011</v>
@@ -3343,56 +3332,56 @@
       <c r="E17" s="10">
         <v>44015</v>
       </c>
-      <c r="F17" s="36"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="8">
         <v>3.2</v>
       </c>
-      <c r="H17" s="33" t="s">
-        <v>175</v>
+      <c r="H17" s="30" t="s">
+        <v>172</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="31"/>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="31"/>
-      <c r="AV17" s="31"/>
-      <c r="AW17" s="31"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="28"/>
+      <c r="AS17" s="28"/>
+      <c r="AT17" s="28"/>
+      <c r="AU17" s="28"/>
+      <c r="AV17" s="28"/>
+      <c r="AW17" s="28"/>
     </row>
     <row r="18" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A18" s="8"/>
@@ -3400,57 +3389,57 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="25"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="25"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="28"/>
+      <c r="AT18" s="28"/>
+      <c r="AU18" s="28"/>
+      <c r="AV18" s="28"/>
+      <c r="AW18" s="28"/>
     </row>
     <row r="19" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A19" s="4">
         <v>4</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>7</v>
@@ -3461,57 +3450,57 @@
       <c r="E19" s="9">
         <v>44015</v>
       </c>
-      <c r="F19" s="37"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="25"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31"/>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="31"/>
-      <c r="AW19" s="31"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="28"/>
+      <c r="AS19" s="28"/>
+      <c r="AT19" s="28"/>
+      <c r="AU19" s="28"/>
+      <c r="AV19" s="28"/>
+      <c r="AW19" s="28"/>
     </row>
     <row r="20" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A20" s="12">
         <v>4.0999999999999996</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>36</v>
@@ -3522,63 +3511,63 @@
       <c r="E20" s="15">
         <v>44000</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="34">
         <v>44000</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="24" t="s">
-        <v>171</v>
+      <c r="H20" s="52">
+        <v>1</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="31"/>
-      <c r="AW20" s="31"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="28"/>
+      <c r="AU20" s="28"/>
+      <c r="AV20" s="28"/>
+      <c r="AW20" s="28"/>
     </row>
     <row r="21" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A21" s="12">
         <v>4.2</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>28</v>
@@ -3589,58 +3578,58 @@
       <c r="E21" s="15">
         <v>44001</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="34">
         <v>44006</v>
       </c>
       <c r="G21" s="8">
         <v>1.5</v>
       </c>
-      <c r="H21" s="24" t="s">
-        <v>128</v>
+      <c r="H21" s="52">
+        <v>1</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="31"/>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31"/>
+        <v>154</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="28"/>
+      <c r="AR21" s="28"/>
+      <c r="AS21" s="28"/>
+      <c r="AT21" s="28"/>
+      <c r="AU21" s="28"/>
+      <c r="AV21" s="28"/>
+      <c r="AW21" s="28"/>
     </row>
     <row r="22" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A22" s="12">
@@ -3650,7 +3639,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D22" s="15">
         <v>44004</v>
@@ -3658,68 +3647,68 @@
       <c r="E22" s="15">
         <v>44006</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="34">
         <v>44012</v>
       </c>
       <c r="G22" s="8">
         <v>1.5</v>
       </c>
-      <c r="H22" s="39" t="s">
-        <v>128</v>
+      <c r="H22" s="52">
+        <v>1</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="31"/>
-      <c r="AS22" s="31"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="31"/>
-      <c r="AW22" s="31"/>
+        <v>140</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="28"/>
+      <c r="AR22" s="28"/>
+      <c r="AS22" s="28"/>
+      <c r="AT22" s="28"/>
+      <c r="AU22" s="28"/>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="28"/>
     </row>
     <row r="23" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A23" s="12">
         <v>4.5</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="15">
         <v>44004</v>
@@ -3727,68 +3716,68 @@
       <c r="E23" s="15">
         <v>44008</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="32">
         <v>44011</v>
       </c>
       <c r="G23" s="8">
         <v>4.2</v>
       </c>
-      <c r="H23" s="24" t="s">
-        <v>128</v>
+      <c r="H23" s="52">
+        <v>1</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
-      <c r="AK23" s="31"/>
-      <c r="AL23" s="31"/>
-      <c r="AM23" s="31"/>
-      <c r="AN23" s="31"/>
-      <c r="AO23" s="31"/>
-      <c r="AP23" s="31"/>
-      <c r="AQ23" s="31"/>
-      <c r="AR23" s="31"/>
-      <c r="AS23" s="31"/>
-      <c r="AT23" s="31"/>
-      <c r="AU23" s="31"/>
-      <c r="AV23" s="31"/>
-      <c r="AW23" s="31"/>
+        <v>132</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="28"/>
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="28"/>
+      <c r="AS23" s="28"/>
+      <c r="AT23" s="28"/>
+      <c r="AU23" s="28"/>
+      <c r="AV23" s="28"/>
+      <c r="AW23" s="28"/>
     </row>
     <row r="24" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A24" s="8">
         <v>4.5999999999999996</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" s="15">
         <v>44011</v>
@@ -3796,58 +3785,58 @@
       <c r="E24" s="15">
         <v>44015</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="34">
         <v>44015</v>
       </c>
       <c r="G24" s="8">
         <v>4.5</v>
       </c>
-      <c r="H24" s="39" t="s">
-        <v>128</v>
+      <c r="H24" s="52">
+        <v>1</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="31"/>
-      <c r="AO24" s="31"/>
-      <c r="AP24" s="31"/>
-      <c r="AQ24" s="31"/>
-      <c r="AR24" s="31"/>
-      <c r="AS24" s="31"/>
-      <c r="AT24" s="31"/>
-      <c r="AU24" s="31"/>
-      <c r="AV24" s="31"/>
-      <c r="AW24" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="28"/>
+      <c r="AS24" s="28"/>
+      <c r="AT24" s="28"/>
+      <c r="AU24" s="28"/>
+      <c r="AV24" s="28"/>
+      <c r="AW24" s="28"/>
     </row>
     <row r="25" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A25" s="8"/>
@@ -3855,57 +3844,57 @@
       <c r="C25" s="11"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="37"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="25"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="31"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="31"/>
-      <c r="AS25" s="31"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="31"/>
-      <c r="AW25" s="31"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="28"/>
+      <c r="AU25" s="28"/>
+      <c r="AV25" s="28"/>
+      <c r="AW25" s="28"/>
     </row>
     <row r="26" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A26" s="4">
         <v>5</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>21</v>
@@ -3916,60 +3905,60 @@
       <c r="E26" s="9">
         <v>44029</v>
       </c>
-      <c r="F26" s="36"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
-      <c r="AK26" s="31"/>
-      <c r="AL26" s="31"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="31"/>
-      <c r="AQ26" s="31"/>
-      <c r="AR26" s="31"/>
-      <c r="AS26" s="31"/>
-      <c r="AT26" s="31"/>
-      <c r="AU26" s="31"/>
-      <c r="AV26" s="31"/>
-      <c r="AW26" s="31"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="28"/>
+      <c r="AS26" s="28"/>
+      <c r="AT26" s="28"/>
+      <c r="AU26" s="28"/>
+      <c r="AV26" s="28"/>
+      <c r="AW26" s="28"/>
     </row>
     <row r="27" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A27" s="8">
         <v>5.0999999999999996</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D27" s="10">
         <v>44018</v>
@@ -3977,64 +3966,64 @@
       <c r="E27" s="10">
         <v>44022</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H27" s="25"/>
+        <v>165</v>
+      </c>
+      <c r="H27" s="24"/>
       <c r="I27" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="31"/>
-      <c r="AH27" s="31"/>
-      <c r="AI27" s="31"/>
-      <c r="AJ27" s="31"/>
-      <c r="AK27" s="31"/>
-      <c r="AL27" s="31"/>
-      <c r="AM27" s="31"/>
-      <c r="AN27" s="31"/>
-      <c r="AO27" s="31"/>
-      <c r="AP27" s="31"/>
-      <c r="AQ27" s="31"/>
-      <c r="AR27" s="31"/>
-      <c r="AS27" s="31"/>
-      <c r="AT27" s="31"/>
-      <c r="AU27" s="31"/>
-      <c r="AV27" s="31"/>
-      <c r="AW27" s="31"/>
+        <v>166</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
+      <c r="AP27" s="28"/>
+      <c r="AQ27" s="28"/>
+      <c r="AR27" s="28"/>
+      <c r="AS27" s="28"/>
+      <c r="AT27" s="28"/>
+      <c r="AU27" s="28"/>
+      <c r="AV27" s="28"/>
+      <c r="AW27" s="28"/>
     </row>
     <row r="28" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A28" s="8">
         <v>5.2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" s="10">
         <v>44025</v>
@@ -4042,54 +4031,54 @@
       <c r="E28" s="10">
         <v>44029</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="31"/>
-      <c r="AI28" s="31"/>
-      <c r="AJ28" s="31"/>
-      <c r="AK28" s="31"/>
-      <c r="AL28" s="31"/>
-      <c r="AM28" s="31"/>
-      <c r="AN28" s="31"/>
-      <c r="AO28" s="31"/>
-      <c r="AP28" s="31"/>
-      <c r="AQ28" s="31"/>
-      <c r="AR28" s="31"/>
-      <c r="AS28" s="31"/>
-      <c r="AT28" s="31"/>
-      <c r="AU28" s="31"/>
-      <c r="AV28" s="31"/>
-      <c r="AW28" s="31"/>
+        <v>166</v>
+      </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="28"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="28"/>
+      <c r="AR28" s="28"/>
+      <c r="AS28" s="28"/>
+      <c r="AT28" s="28"/>
+      <c r="AU28" s="28"/>
+      <c r="AV28" s="28"/>
+      <c r="AW28" s="28"/>
     </row>
     <row r="29" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A29" s="8"/>
@@ -4097,60 +4086,60 @@
       <c r="C29" s="7"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="25"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="31"/>
-      <c r="AI29" s="31"/>
-      <c r="AJ29" s="31"/>
-      <c r="AK29" s="31"/>
-      <c r="AL29" s="31"/>
-      <c r="AM29" s="31"/>
-      <c r="AN29" s="31"/>
-      <c r="AO29" s="31"/>
-      <c r="AP29" s="31"/>
-      <c r="AQ29" s="31"/>
-      <c r="AR29" s="31"/>
-      <c r="AS29" s="31"/>
-      <c r="AT29" s="31"/>
-      <c r="AU29" s="31"/>
-      <c r="AV29" s="31"/>
-      <c r="AW29" s="31"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
+      <c r="AK29" s="28"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="28"/>
+      <c r="AN29" s="28"/>
+      <c r="AO29" s="28"/>
+      <c r="AP29" s="28"/>
+      <c r="AQ29" s="28"/>
+      <c r="AR29" s="28"/>
+      <c r="AS29" s="28"/>
+      <c r="AT29" s="28"/>
+      <c r="AU29" s="28"/>
+      <c r="AV29" s="28"/>
+      <c r="AW29" s="28"/>
     </row>
     <row r="30" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A30" s="4">
         <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D30" s="9">
         <v>44032</v>
@@ -4158,50 +4147,50 @@
       <c r="E30" s="9">
         <v>44043</v>
       </c>
-      <c r="F30" s="37"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="25"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="31"/>
-      <c r="AM30" s="31"/>
-      <c r="AN30" s="31"/>
-      <c r="AO30" s="31"/>
-      <c r="AP30" s="31"/>
-      <c r="AQ30" s="31"/>
-      <c r="AR30" s="31"/>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="31"/>
-      <c r="AU30" s="31"/>
-      <c r="AV30" s="31"/>
-      <c r="AW30" s="31"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="28"/>
+      <c r="AL30" s="28"/>
+      <c r="AM30" s="28"/>
+      <c r="AN30" s="28"/>
+      <c r="AO30" s="28"/>
+      <c r="AP30" s="28"/>
+      <c r="AQ30" s="28"/>
+      <c r="AR30" s="28"/>
+      <c r="AS30" s="28"/>
+      <c r="AT30" s="28"/>
+      <c r="AU30" s="28"/>
+      <c r="AV30" s="28"/>
+      <c r="AW30" s="28"/>
     </row>
     <row r="31" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A31" s="12">
@@ -4211,7 +4200,7 @@
         <v>78</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="15">
         <v>44032</v>
@@ -4219,64 +4208,64 @@
       <c r="E31" s="15">
         <v>44036</v>
       </c>
-      <c r="F31" s="37"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="8">
         <v>5</v>
       </c>
-      <c r="H31" s="25"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="31"/>
-      <c r="AI31" s="31"/>
-      <c r="AJ31" s="31"/>
-      <c r="AK31" s="31"/>
-      <c r="AL31" s="31"/>
-      <c r="AM31" s="31"/>
-      <c r="AN31" s="31"/>
-      <c r="AO31" s="31"/>
-      <c r="AP31" s="31"/>
-      <c r="AQ31" s="31"/>
-      <c r="AR31" s="31"/>
-      <c r="AS31" s="31"/>
-      <c r="AT31" s="31"/>
-      <c r="AU31" s="31"/>
-      <c r="AV31" s="31"/>
-      <c r="AW31" s="31"/>
+        <v>162</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="28"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="28"/>
+      <c r="AP31" s="28"/>
+      <c r="AQ31" s="28"/>
+      <c r="AR31" s="28"/>
+      <c r="AS31" s="28"/>
+      <c r="AT31" s="28"/>
+      <c r="AU31" s="28"/>
+      <c r="AV31" s="28"/>
+      <c r="AW31" s="28"/>
     </row>
     <row r="32" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A32" s="12">
         <v>6.2</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="15">
         <v>44039</v>
@@ -4284,74 +4273,74 @@
       <c r="E32" s="15">
         <v>44043</v>
       </c>
-      <c r="F32" s="37"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="8">
         <v>6.1</v>
       </c>
-      <c r="H32" s="25"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-      <c r="AG32" s="31"/>
-      <c r="AH32" s="31"/>
-      <c r="AI32" s="31"/>
-      <c r="AJ32" s="31"/>
-      <c r="AK32" s="31"/>
-      <c r="AL32" s="31"/>
-      <c r="AM32" s="31"/>
-      <c r="AN32" s="31"/>
-      <c r="AO32" s="31"/>
-      <c r="AP32" s="31"/>
-      <c r="AQ32" s="31"/>
-      <c r="AR32" s="31"/>
-      <c r="AS32" s="31"/>
-      <c r="AT32" s="31"/>
-      <c r="AU32" s="31"/>
-      <c r="AV32" s="31"/>
-      <c r="AW32" s="31"/>
+        <v>163</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="28"/>
+      <c r="AN32" s="28"/>
+      <c r="AO32" s="28"/>
+      <c r="AP32" s="28"/>
+      <c r="AQ32" s="28"/>
+      <c r="AR32" s="28"/>
+      <c r="AS32" s="28"/>
+      <c r="AT32" s="28"/>
+      <c r="AU32" s="28"/>
+      <c r="AV32" s="28"/>
+      <c r="AW32" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
